--- a/Spreadsheet Interface/Input_Spreadsheet_v250304.xlsx
+++ b/Spreadsheet Interface/Input_Spreadsheet_v250304.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kleinschmidtgroup-my.sharepoint.com/personal/andrew_yoder_kleinschmidtgroup_com/Documents/Software/stryke/Spreadsheet Interface/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kleinschmidtgroup-my.sharepoint.com/personal/kevin_nebiolo_kleinschmidtgroup_com/Documents/Software/stryke/Spreadsheet Interface/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_8B472488AA45E58AE2C2EB8C7841203D36F2EB9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0590BC33-7540-41D9-92D7-8258420384EA}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_8B472488AA45E58AE2C2EB8C7841203D36F2EB9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFCC1C52-1C16-4E6D-8104-66F56F7726D3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="838" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="838" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Background and Metadata" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
   <si>
     <t>Purpose:</t>
   </si>
@@ -354,6 +354,15 @@
   <si>
     <t>Benthic</t>
   </si>
+  <si>
+    <t>intercept</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>ps_D</t>
+  </si>
 </sst>
 </file>
 
@@ -515,7 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -620,6 +629,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -636,10 +649,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1331,9 +1340,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:BI6"/>
+  <dimension ref="A1:BJ6"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1343,19 +1354,19 @@
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="61" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="62" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1379,8 +1390,9 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="42" t="s">
         <v>36</v>
       </c>
@@ -1403,11 +1415,12 @@
       <c r="S2" s="43"/>
       <c r="T2" s="43"/>
       <c r="U2" s="43"/>
-      <c r="V2" s="1"/>
+      <c r="V2" s="43"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-    </row>
-    <row r="3" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
@@ -1428,11 +1441,12 @@
       <c r="S3" s="43"/>
       <c r="T3" s="43"/>
       <c r="U3" s="43"/>
-      <c r="V3" s="1"/>
+      <c r="V3" s="43"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-    </row>
-    <row r="4" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1456,8 +1470,9 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-    </row>
-    <row r="5" spans="2:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>26</v>
       </c>
@@ -1485,50 +1500,53 @@
       <c r="J5" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="Q5" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="R5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="S5" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="T5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="U5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="20" t="s">
+      <c r="V5" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="V5" s="20" t="s">
+      <c r="W5" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="W5" s="20" t="s">
+      <c r="X5" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="X5" s="20" t="s">
+      <c r="Y5" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>33</v>
       </c>
@@ -1556,53 +1574,53 @@
       <c r="J6" s="7">
         <v>10</v>
       </c>
-      <c r="K6" s="7">
+      <c r="L6" s="7">
         <v>40</v>
       </c>
-      <c r="L6" s="7">
+      <c r="M6" s="7">
         <v>0.94</v>
       </c>
-      <c r="M6" s="7">
+      <c r="N6" s="7">
         <v>13</v>
       </c>
-      <c r="N6" s="7">
-        <f>O6*P6</f>
+      <c r="O6" s="7">
+        <f>P6*Q6</f>
         <v>2150.7199999999998</v>
       </c>
-      <c r="O6" s="7">
+      <c r="P6" s="7">
         <v>2288</v>
       </c>
-      <c r="P6" s="7">
+      <c r="Q6" s="7">
         <v>0.94</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="R6" s="7">
         <v>4</v>
       </c>
-      <c r="R6" s="7">
+      <c r="S6" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S6" s="7">
+      <c r="T6" s="7">
         <v>11.22</v>
       </c>
-      <c r="T6" s="7">
+      <c r="U6" s="7">
         <v>10.76</v>
       </c>
-      <c r="U6" s="7">
+      <c r="V6" s="7">
         <v>0.2</v>
       </c>
-      <c r="V6" s="7">
+      <c r="W6" s="7">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="W6" s="7">
-        <v>2</v>
       </c>
       <c r="X6" s="7">
         <v>2</v>
       </c>
+      <c r="Y6" s="7">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:U3"/>
+    <mergeCell ref="B2:V3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
@@ -13965,7 +13983,7 @@
   <dimension ref="A1:AW1800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24834,8 +24852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:HD13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="G8" zoomScale="114" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25116,8 +25134,12 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
+      <c r="Q11" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="R11" s="54" t="s">
+        <v>105</v>
+      </c>
       <c r="S11" s="52" t="s">
         <v>76</v>
       </c>

--- a/Spreadsheet Interface/Input_Spreadsheet_v250304.xlsx
+++ b/Spreadsheet Interface/Input_Spreadsheet_v250304.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kleinschmidtgroup-my.sharepoint.com/personal/kevin_nebiolo_kleinschmidtgroup_com/Documents/Software/stryke/Spreadsheet Interface/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_8B472488AA45E58AE2C2EB8C7841203D36F2EB9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFCC1C52-1C16-4E6D-8104-66F56F7726D3}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_8B472488AA45E58AE2C2EB8C7841203D36F2EB9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2AE64F5-3681-4320-B17C-1291F11CCC5A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="838" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2385" yWindow="2415" windowWidth="21600" windowHeight="11385" tabRatio="838" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Background and Metadata" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>Operations</t>
-  </si>
-  <si>
-    <t>Exc_Rack_Spacing</t>
   </si>
   <si>
     <t>Min_Op_Flow</t>
@@ -362,6 +359,9 @@
   </si>
   <si>
     <t>ps_D</t>
+  </si>
+  <si>
+    <t>Rack Spacing</t>
   </si>
 </sst>
 </file>
@@ -603,6 +603,10 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -628,10 +632,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1051,36 +1051,36 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="2:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
@@ -1187,17 +1187,17 @@
       <c r="C1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="36"/>
@@ -1225,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,16 +1252,16 @@
       <c r="I1" s="34"/>
     </row>
     <row r="2" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="34"/>
@@ -1284,30 +1284,30 @@
         <v>27</v>
       </c>
       <c r="E4" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="G4" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="H4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="I4" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="35" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1322,7 +1322,7 @@
         <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1342,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BJ6"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,55 +1393,55 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
-        <v>36</v>
+      <c r="B2" s="44" t="s">
+        <v>35</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -1477,84 +1477,84 @@
         <v>26</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>96</v>
+      <c r="N5" s="6" t="s">
+        <v>44</v>
       </c>
-      <c r="K5" s="55" t="s">
-        <v>106</v>
+      <c r="O5" s="6" t="s">
+        <v>45</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="P5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>44</v>
+      <c r="Y5" s="20" t="s">
+        <v>98</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>45</v>
+    </row>
+    <row r="6" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>32</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="S5" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V5" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="W5" s="20" t="s">
+      <c r="C6" t="s">
         <v>54</v>
       </c>
-      <c r="X5" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y5" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1572,6 +1572,9 @@
         <v>10.76</v>
       </c>
       <c r="J6" s="7">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7">
         <v>10</v>
       </c>
       <c r="L6" s="7">
@@ -1659,76 +1662,76 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
-        <v>64</v>
+      <c r="B2" s="44" t="s">
+        <v>63</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
@@ -1742,13 +1745,13 @@
     </row>
     <row r="10" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1758,10 +1761,10 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -13824,79 +13827,79 @@
       <c r="BC1" s="29"/>
     </row>
     <row r="2" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
-        <v>57</v>
+      <c r="B2" s="50" t="s">
+        <v>56</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
       <c r="BB2" s="29"/>
       <c r="BC2" s="29"/>
     </row>
     <row r="3" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
       <c r="BB3" s="29"/>
       <c r="BC3" s="29"/>
     </row>
     <row r="4" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
       <c r="BB4" s="29"/>
       <c r="BC4" s="29"/>
     </row>
     <row r="5" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
       <c r="BB5" s="29"/>
       <c r="BC5" s="29"/>
     </row>
     <row r="6" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
       <c r="BB6" s="29"/>
       <c r="BC6" s="29"/>
     </row>
@@ -13921,11 +13924,11 @@
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="47" t="s">
-        <v>58</v>
+      <c r="G8" s="49" t="s">
+        <v>57</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
       <c r="BB8" s="29"/>
       <c r="BC8" s="29"/>
     </row>
@@ -13937,22 +13940,22 @@
         <v>26</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:55" x14ac:dyDescent="0.25">
@@ -13960,10 +13963,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10">
         <v>24</v>
@@ -14005,60 +14008,60 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
-        <v>68</v>
+      <c r="B2" s="44" t="s">
+        <v>67</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
@@ -14071,13 +14074,13 @@
     </row>
     <row r="9" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -14086,10 +14089,10 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -24852,7 +24855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:HD13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" zoomScale="114" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="G8" zoomScale="114" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -24903,189 +24906,189 @@
       <c r="V1" s="12"/>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="s">
-        <v>72</v>
+      <c r="B2" s="55" t="s">
+        <v>71</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
       <c r="V2" s="13"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
       <c r="V3" s="13"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
       <c r="V4" s="13"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
       <c r="V5" s="13"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
       <c r="V6" s="13"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
       <c r="V7" s="18"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
       <c r="V8" s="13"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
       <c r="V9" s="13"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
@@ -25111,7 +25114,7 @@
       <c r="U10" s="27"/>
       <c r="V10" s="12"/>
       <c r="W10" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -25119,13 +25122,13 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
@@ -25134,93 +25137,93 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="54" t="s">
+      <c r="Q11" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="R11" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="R11" s="54" t="s">
-        <v>105</v>
+      <c r="S11" s="54" t="s">
+        <v>75</v>
       </c>
-      <c r="S11" s="52" t="s">
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="14"/>
+    </row>
+    <row r="12" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="14"/>
-    </row>
-    <row r="12" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="16" t="s">
+      <c r="J12" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="K12" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="L12" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="M12" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="M12" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="N12" s="16" t="s">
+      <c r="O12" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="P12" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="16" t="s">
+      <c r="Q12" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="S12" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="Q12" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="S12" s="16" t="s">
+      <c r="T12" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="T12" s="16" t="s">
+      <c r="U12" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="16" t="s">
+      <c r="V12" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="V12" s="17" t="s">
+      <c r="W12" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="W12" s="26" t="s">
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>92</v>
-      </c>
-      <c r="C13" t="s">
-        <v>93</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>18</v>
@@ -25235,7 +25238,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J13">
         <v>4.1300000000000003E-2</v>
@@ -25247,7 +25250,7 @@
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P13">
         <v>1.6</v>
@@ -25268,7 +25271,7 @@
         <v>15.9345</v>
       </c>
       <c r="V13" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
